--- a/Code/Results/Cases/Case_0_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1375757415184609</v>
+        <v>0.1443055028629487</v>
       </c>
       <c r="D2">
-        <v>0.04048428755506706</v>
+        <v>0.02583992922655654</v>
       </c>
       <c r="E2">
-        <v>0.5711441991816884</v>
+        <v>0.2091334449716982</v>
       </c>
       <c r="F2">
-        <v>0.4723436889338828</v>
+        <v>0.6527184526782648</v>
       </c>
       <c r="G2">
-        <v>0.0007331561220719207</v>
+        <v>0.002417491095003315</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1893725217236515</v>
+        <v>0.5726874813622871</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.389205776227811</v>
+        <v>0.4381823451170703</v>
       </c>
       <c r="M2">
-        <v>33.79429340581083</v>
+        <v>10.88947443666467</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.22955095988894</v>
+        <v>2.211179229012771</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1159928766770832</v>
+        <v>0.1445433111169194</v>
       </c>
       <c r="D3">
-        <v>0.03450419257720228</v>
+        <v>0.0249330406289161</v>
       </c>
       <c r="E3">
-        <v>0.4770463978443544</v>
+        <v>0.192535924534333</v>
       </c>
       <c r="F3">
-        <v>0.3889102187933915</v>
+        <v>0.6667955102320278</v>
       </c>
       <c r="G3">
-        <v>0.0007443863976593067</v>
+        <v>0.002422754144630197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1429007639802542</v>
+        <v>0.5988095570524514</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.162247955328212</v>
+        <v>0.3929985317799947</v>
       </c>
       <c r="M3">
-        <v>28.80377901023064</v>
+        <v>9.560103055943898</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9904849403704645</v>
+        <v>2.281527690969654</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1047173822996399</v>
+        <v>0.1448770814070315</v>
       </c>
       <c r="D4">
-        <v>0.03115571475647982</v>
+        <v>0.02439595709433462</v>
       </c>
       <c r="E4">
-        <v>0.4240639956364873</v>
+        <v>0.1825285129247263</v>
       </c>
       <c r="F4">
-        <v>0.3461681407601347</v>
+        <v>0.6766522063770566</v>
       </c>
       <c r="G4">
-        <v>0.0007511871118410434</v>
+        <v>0.002426123734616511</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1232352811217616</v>
+        <v>0.6160816230205661</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.033265051856574</v>
+        <v>0.3655212271781068</v>
       </c>
       <c r="M4">
-        <v>25.87044376682854</v>
+        <v>8.740752815026383</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8748054375950858</v>
+        <v>2.329103703260373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1005123386802467</v>
+        <v>0.145059556483659</v>
       </c>
       <c r="D5">
-        <v>0.02985391684303096</v>
+        <v>0.02418197293101088</v>
       </c>
       <c r="E5">
-        <v>0.403400391479849</v>
+        <v>0.1784949067261152</v>
       </c>
       <c r="F5">
-        <v>0.3305013761864473</v>
+        <v>0.68096892098918</v>
       </c>
       <c r="G5">
-        <v>0.0007539482608581172</v>
+        <v>0.002427531770031495</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1170406785540763</v>
+        <v>0.6234249009485318</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.98270032238986</v>
+        <v>0.3543873542648157</v>
       </c>
       <c r="M5">
-        <v>24.6998705581031</v>
+        <v>8.406049450756711</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8340680381639629</v>
+        <v>2.34957455767578</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09983504034448742</v>
+        <v>0.1450926412085494</v>
       </c>
       <c r="D6">
-        <v>0.02964109316234698</v>
+        <v>0.0241467335481147</v>
       </c>
       <c r="E6">
-        <v>0.4000184518435077</v>
+        <v>0.177827770774222</v>
       </c>
       <c r="F6">
-        <v>0.3279961188012095</v>
+        <v>0.6817036818244446</v>
       </c>
       <c r="G6">
-        <v>0.000754406467752059</v>
+        <v>0.002427767686527369</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1161117663586744</v>
+        <v>0.6246625006658064</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9744098438976891</v>
+        <v>0.3525423131965795</v>
       </c>
       <c r="M6">
-        <v>24.50679595273022</v>
+        <v>8.350422435628275</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8276550212885638</v>
+        <v>2.353038612139301</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1046592139540792</v>
+        <v>0.1448793551761582</v>
       </c>
       <c r="D7">
-        <v>0.03113792515772218</v>
+        <v>0.02439305156950411</v>
       </c>
       <c r="E7">
-        <v>0.4237818790498977</v>
+        <v>0.1824739362423813</v>
       </c>
       <c r="F7">
-        <v>0.3459502057449342</v>
+        <v>0.676709214947536</v>
       </c>
       <c r="G7">
-        <v>0.0007512243754143389</v>
+        <v>0.002426142582229052</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1231448438878573</v>
+        <v>0.6161794299590682</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.03257572256922</v>
+        <v>0.3653708197547019</v>
       </c>
       <c r="M7">
-        <v>25.85456587573441</v>
+        <v>8.736242209425654</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8742317481091106</v>
+        <v>2.329375418769672</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1296488021318822</v>
+        <v>0.1443480659625891</v>
       </c>
       <c r="D8">
-        <v>0.03834226601123447</v>
+        <v>0.02552308135666692</v>
       </c>
       <c r="E8">
-        <v>0.5375099998369137</v>
+        <v>0.2033714891905731</v>
       </c>
       <c r="F8">
-        <v>0.4415524065973315</v>
+        <v>0.6573173335915143</v>
       </c>
       <c r="G8">
-        <v>0.0007370573798857096</v>
+        <v>0.002419277254308798</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1712258949288099</v>
+        <v>0.5814352747116196</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.308372304029149</v>
+        <v>0.4225456257628935</v>
       </c>
       <c r="M8">
-        <v>32.0407670026193</v>
+        <v>10.43173342170832</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.139691270770982</v>
+        <v>2.234514714380879</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2016551166091602</v>
+        <v>0.1448319889512248</v>
       </c>
       <c r="D9">
-        <v>0.0563003195899725</v>
+        <v>0.02790013214357856</v>
       </c>
       <c r="E9">
-        <v>0.8174725088080024</v>
+        <v>0.2458906355087862</v>
       </c>
       <c r="F9">
-        <v>0.7209632761638858</v>
+        <v>0.6291465358328949</v>
       </c>
       <c r="G9">
-        <v>0.000707628550814572</v>
+        <v>0.002406900975727609</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3626544657843169</v>
+        <v>0.5233232911064896</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.972907631935982</v>
+        <v>0.5369496725034821</v>
       </c>
       <c r="M9">
-        <v>45.75270054350693</v>
+        <v>13.73362012078138</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.998787239042059</v>
+        <v>2.084099889397578</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2871852714961705</v>
+        <v>0.1461708331080018</v>
       </c>
       <c r="D10">
-        <v>0.07502350146305758</v>
+        <v>0.02975160189743775</v>
       </c>
       <c r="E10">
-        <v>1.105564191433871</v>
+        <v>0.2781946997666438</v>
       </c>
       <c r="F10">
-        <v>1.040148951506666</v>
+        <v>0.614777789658298</v>
       </c>
       <c r="G10">
-        <v>0.0006828328301684561</v>
+        <v>0.002398457665094463</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6267292374203848</v>
+        <v>0.4870673951109197</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.640813590223672</v>
+        <v>0.6226673955724493</v>
       </c>
       <c r="M10">
-        <v>58.12821328784003</v>
+        <v>16.1484756729497</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.05367640834217</v>
+        <v>1.996463043686163</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3436086552985955</v>
+        <v>0.1470059100821999</v>
       </c>
       <c r="D11">
-        <v>0.08651430802736115</v>
+        <v>0.03061838413434259</v>
       </c>
       <c r="E11">
-        <v>1.281033032723798</v>
+        <v>0.293152523338108</v>
       </c>
       <c r="F11">
-        <v>1.23981649752163</v>
+        <v>0.6096856131476329</v>
       </c>
       <c r="G11">
-        <v>0.0006697090347002055</v>
+        <v>0.002394754712894955</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8074128123205853</v>
+        <v>0.4720445987165043</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.041508169221345</v>
+        <v>0.6620901594043289</v>
       </c>
       <c r="M11">
-        <v>64.9826189478735</v>
+        <v>17.24542108111217</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.738234382083419</v>
+        <v>1.961818476011189</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3698187476592381</v>
+        <v>0.147355730266014</v>
       </c>
       <c r="D12">
-        <v>0.09168494067525046</v>
+        <v>0.03095028952370171</v>
       </c>
       <c r="E12">
-        <v>1.359747184307381</v>
+        <v>0.2988570760527551</v>
       </c>
       <c r="F12">
-        <v>1.329495198711825</v>
+        <v>0.6079709569268203</v>
       </c>
       <c r="G12">
-        <v>0.0006642255927564453</v>
+        <v>0.002393372102165996</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8917343383404983</v>
+        <v>0.4665734772925347</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.21997903367955</v>
+        <v>0.6770860080498551</v>
       </c>
       <c r="M12">
-        <v>67.91231944685717</v>
+        <v>17.66064323457852</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.050671788035203</v>
+        <v>1.949472171871207</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3638862496827784</v>
+        <v>0.1472788780662313</v>
       </c>
       <c r="D13">
-        <v>0.09052279725781887</v>
+        <v>0.03087864193729928</v>
       </c>
       <c r="E13">
-        <v>1.342066696219106</v>
+        <v>0.2976266608064293</v>
       </c>
       <c r="F13">
-        <v>1.309367437073504</v>
+        <v>0.6083306408207818</v>
       </c>
       <c r="G13">
-        <v>0.000665437002527387</v>
+        <v>0.002393669003342279</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8726483580645024</v>
+        <v>0.4677419981020599</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.179956120822709</v>
+        <v>0.6738532976227134</v>
       </c>
       <c r="M13">
-        <v>67.2616376945536</v>
+        <v>17.57122412455919</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.980296945990887</v>
+        <v>1.952096442439569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3456436828216454</v>
+        <v>0.1470340102453918</v>
       </c>
       <c r="D14">
-        <v>0.08691921619379883</v>
+        <v>0.03064561569208735</v>
       </c>
       <c r="E14">
-        <v>1.287201894783465</v>
+        <v>0.293621016170917</v>
       </c>
       <c r="F14">
-        <v>1.246849209106657</v>
+        <v>0.6095402310829456</v>
       </c>
       <c r="G14">
-        <v>0.0006692707572004826</v>
+        <v>0.002394640572618861</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.813957875279705</v>
+        <v>0.4715900870766419</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.05552218063437</v>
+        <v>0.6633224947736664</v>
       </c>
       <c r="M14">
-        <v>65.21532123697432</v>
+        <v>17.27958464114329</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.762630629537398</v>
+        <v>1.960787121854679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.335217741048865</v>
+        <v>0.1468884300817024</v>
       </c>
       <c r="D15">
-        <v>0.08483831569440525</v>
+        <v>0.03050336331826031</v>
       </c>
       <c r="E15">
-        <v>1.255489577687698</v>
+        <v>0.291172777883034</v>
       </c>
       <c r="F15">
-        <v>1.210694622920684</v>
+        <v>0.6103091414208279</v>
       </c>
       <c r="G15">
-        <v>0.0006715397492654967</v>
+        <v>0.002395238235252661</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7804357405180014</v>
+        <v>0.4739756904313879</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.983429661370252</v>
+        <v>0.6568810106600154</v>
       </c>
       <c r="M15">
-        <v>64.01331006906059</v>
+        <v>17.10092715497512</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.637408092785449</v>
+        <v>1.966211720190586</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2839954749074849</v>
+        <v>0.1461208991286185</v>
       </c>
       <c r="D16">
-        <v>0.0743569136315898</v>
+        <v>0.02969546157663672</v>
       </c>
       <c r="E16">
-        <v>1.09535831875904</v>
+        <v>0.2772226718562649</v>
       </c>
       <c r="F16">
-        <v>1.028593120820375</v>
+        <v>0.6151401438159922</v>
       </c>
       <c r="G16">
-        <v>0.0006836377127755433</v>
+        <v>0.002398702418894132</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6165951502488056</v>
+        <v>0.4880792872334361</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.617377468832103</v>
+        <v>0.6201001315759811</v>
       </c>
       <c r="M16">
-        <v>57.7148349529935</v>
+        <v>16.07676086843912</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.014567996165511</v>
+        <v>1.998834089955096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2580682026642478</v>
+        <v>0.1457086934457976</v>
       </c>
       <c r="D17">
-        <v>0.0688594582367017</v>
+        <v>0.02920622480462498</v>
       </c>
       <c r="E17">
-        <v>1.01105914538708</v>
+        <v>0.2687337701718633</v>
       </c>
       <c r="F17">
-        <v>0.9336241425717304</v>
+        <v>0.6184779132337752</v>
       </c>
       <c r="G17">
-        <v>0.0006904772992434305</v>
+        <v>0.002400862761626149</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5347905163650708</v>
+        <v>0.4971123574687368</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.423205099717137</v>
+        <v>0.5976500560104796</v>
       </c>
       <c r="M17">
-        <v>54.23397407144518</v>
+        <v>15.44810340769357</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.695519698330344</v>
+        <v>2.020199767464618</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2446074242456433</v>
+        <v>0.1454928097394799</v>
       </c>
       <c r="D18">
-        <v>0.06594423209740086</v>
+        <v>0.02892712915556928</v>
       </c>
       <c r="E18">
-        <v>0.9662557230398505</v>
+        <v>0.2638757244501306</v>
       </c>
       <c r="F18">
-        <v>0.8836032996369028</v>
+        <v>0.6205332847038321</v>
       </c>
       <c r="G18">
-        <v>0.0006942586185175289</v>
+        <v>0.002402118331870253</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4928327722122035</v>
+        <v>0.5024459385003865</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.319556525367403</v>
+        <v>0.5847774216163941</v>
       </c>
       <c r="M18">
-        <v>52.33382159870791</v>
+        <v>15.08636312990274</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.529277932470677</v>
+        <v>2.032978907565052</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2402613487798959</v>
+        <v>0.1454233251003672</v>
       </c>
       <c r="D19">
-        <v>0.0649931506052539</v>
+        <v>0.02883302302328161</v>
       </c>
       <c r="E19">
-        <v>0.951622591990521</v>
+        <v>0.2622350131382944</v>
       </c>
       <c r="F19">
-        <v>0.8673518296805298</v>
+        <v>0.6212523036731099</v>
       </c>
       <c r="G19">
-        <v>0.0006955168336070471</v>
+        <v>0.002402545685673555</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.479380766719963</v>
+        <v>0.50427530983983</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.285633381585086</v>
+        <v>0.5804256850630907</v>
       </c>
       <c r="M19">
-        <v>51.70536204565968</v>
+        <v>14.9638560385855</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.475555046603688</v>
+        <v>2.037389230683317</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2606681979668934</v>
+        <v>0.1457503709751364</v>
       </c>
       <c r="D20">
-        <v>0.06941748221039745</v>
+        <v>0.02925806579641232</v>
       </c>
       <c r="E20">
-        <v>1.019627027379194</v>
+        <v>0.2696348695712771</v>
       </c>
       <c r="F20">
-        <v>0.9432302946188287</v>
+        <v>0.6181085277319056</v>
       </c>
       <c r="G20">
-        <v>0.0006897660722479085</v>
+        <v>0.002400631445814328</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5429405842988757</v>
+        <v>0.4961364444750487</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.442989711545891</v>
+        <v>0.6000357202286182</v>
       </c>
       <c r="M20">
-        <v>54.59329623094459</v>
+        <v>15.51504049658035</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.72759302227422</v>
+        <v>2.017874466731143</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3508368248120064</v>
+        <v>0.1471050131061276</v>
       </c>
       <c r="D21">
-        <v>0.0879497883787792</v>
+        <v>0.03071396023079842</v>
       </c>
       <c r="E21">
-        <v>1.302899038177841</v>
+        <v>0.2947964544697612</v>
       </c>
       <c r="F21">
-        <v>1.264742522947785</v>
+        <v>0.6091790988146357</v>
       </c>
       <c r="G21">
-        <v>0.0006681621836465908</v>
+        <v>0.002394354668665886</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8306629877402472</v>
+        <v>0.4704538514130086</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.091160750542457</v>
+        <v>0.666413773960727</v>
       </c>
       <c r="M21">
-        <v>65.80503920169275</v>
+        <v>17.36525025374425</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.824784106687645</v>
+        <v>1.958213306637816</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4428246464405419</v>
+        <v>0.1481867157846182</v>
       </c>
       <c r="D22">
-        <v>0.1056427166797462</v>
+        <v>0.03168696039140428</v>
       </c>
       <c r="E22">
-        <v>1.571695099770366</v>
+        <v>0.3114775225005673</v>
       </c>
       <c r="F22">
-        <v>1.569113250579676</v>
+        <v>0.604591320887863</v>
       </c>
       <c r="G22">
-        <v>0.0006505473113770921</v>
+        <v>0.002390366666102232</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.125706139076719</v>
+        <v>0.45494064802417</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.697058396135787</v>
+        <v>0.7101908282012062</v>
       </c>
       <c r="M22">
-        <v>75.40164170177104</v>
+        <v>18.57352677411563</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.89892443929682</v>
+        <v>1.923736540071161</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3886993204974374</v>
+        <v>0.1475910466172508</v>
       </c>
       <c r="D23">
-        <v>0.09535360889076827</v>
+        <v>0.03116563476696399</v>
       </c>
       <c r="E23">
-        <v>1.415522762042499</v>
+        <v>0.3025519779543089</v>
       </c>
       <c r="F23">
-        <v>1.39289187200572</v>
+        <v>0.6069236979416104</v>
       </c>
       <c r="G23">
-        <v>0.0006604780694968294</v>
+        <v>0.002392484760453666</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9524400251131127</v>
+        <v>0.4631018503257565</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.346000318920915</v>
+        <v>0.6867880929932824</v>
       </c>
       <c r="M23">
-        <v>69.93786615940047</v>
+        <v>17.92871150315284</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.273249430647724</v>
+        <v>1.941716915297235</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2594883641792052</v>
+        <v>0.1457314629279693</v>
       </c>
       <c r="D24">
-        <v>0.06916445662275095</v>
+        <v>0.02923462172613256</v>
       </c>
       <c r="E24">
-        <v>1.015742401633567</v>
+        <v>0.2692274131525494</v>
       </c>
       <c r="F24">
-        <v>0.9388734379915888</v>
+        <v>0.6182751023763373</v>
       </c>
       <c r="G24">
-        <v>0.0006900880742505574</v>
+        <v>0.002400735981407652</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5392405327508172</v>
+        <v>0.496577218058075</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.43402091359286</v>
+        <v>0.5989570552855525</v>
       </c>
       <c r="M24">
-        <v>54.43054055405264</v>
+        <v>15.48477922974138</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.713040460470694</v>
+        <v>2.018924192767258</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1783900568017742</v>
+        <v>0.1445324253274833</v>
       </c>
       <c r="D25">
-        <v>0.05080392657430366</v>
+        <v>0.0272391612243581</v>
       </c>
       <c r="E25">
-        <v>0.7322321772472193</v>
+        <v>0.2342107458516125</v>
       </c>
       <c r="F25">
-        <v>0.6312221167311307</v>
+        <v>0.6356795813643217</v>
       </c>
       <c r="G25">
-        <v>0.0007159250809585825</v>
+        <v>0.002410134065591072</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2957402432260778</v>
+        <v>0.5379375901237005</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.772431859943367</v>
+        <v>0.5057288935074382</v>
       </c>
       <c r="M25">
-        <v>41.77709171108955</v>
+        <v>12.84254550745828</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.714018495475671</v>
+        <v>2.120859903334946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_139/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_139/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1443055028629487</v>
+        <v>0.137575741518404</v>
       </c>
       <c r="D2">
-        <v>0.02583992922655654</v>
+        <v>0.04048428755507416</v>
       </c>
       <c r="E2">
-        <v>0.2091334449716982</v>
+        <v>0.5711441991817097</v>
       </c>
       <c r="F2">
-        <v>0.6527184526782648</v>
+        <v>0.4723436889338828</v>
       </c>
       <c r="G2">
-        <v>0.002417491095003315</v>
+        <v>0.0007331561220716432</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5726874813622871</v>
+        <v>0.1893725217236728</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4381823451170703</v>
+        <v>1.38920577622784</v>
       </c>
       <c r="M2">
-        <v>10.88947443666467</v>
+        <v>33.79429340581089</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.211179229012771</v>
+        <v>1.229550959889082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1445433111169194</v>
+        <v>0.1159928766769838</v>
       </c>
       <c r="D3">
-        <v>0.0249330406289161</v>
+        <v>0.0345041925769749</v>
       </c>
       <c r="E3">
-        <v>0.192535924534333</v>
+        <v>0.4770463978443473</v>
       </c>
       <c r="F3">
-        <v>0.6667955102320278</v>
+        <v>0.3889102187934128</v>
       </c>
       <c r="G3">
-        <v>0.002422754144630197</v>
+        <v>0.000744386397619971</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5988095570524514</v>
+        <v>0.1429007639802684</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3929985317799947</v>
+        <v>1.162247955328354</v>
       </c>
       <c r="M3">
-        <v>9.560103055943898</v>
+        <v>28.80377901023047</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.281527690969654</v>
+        <v>0.9904849403705498</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1448770814070315</v>
+        <v>0.1047173822998673</v>
       </c>
       <c r="D4">
-        <v>0.02439595709433462</v>
+        <v>0.03115571475655798</v>
       </c>
       <c r="E4">
-        <v>0.1825285129247263</v>
+        <v>0.4240639956364944</v>
       </c>
       <c r="F4">
-        <v>0.6766522063770566</v>
+        <v>0.3461681407601418</v>
       </c>
       <c r="G4">
-        <v>0.002426123734616511</v>
+        <v>0.0007511871119155853</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6160816230205661</v>
+        <v>0.1232352811217652</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3655212271781068</v>
+        <v>1.03326505185666</v>
       </c>
       <c r="M4">
-        <v>8.740752815026383</v>
+        <v>25.87044376682843</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.329103703260373</v>
+        <v>0.8748054375950858</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.145059556483659</v>
+        <v>0.1005123386800335</v>
       </c>
       <c r="D5">
-        <v>0.02418197293101088</v>
+        <v>0.02985391684307359</v>
       </c>
       <c r="E5">
-        <v>0.1784949067261152</v>
+        <v>0.403400391479849</v>
       </c>
       <c r="F5">
-        <v>0.68096892098918</v>
+        <v>0.3305013761864402</v>
       </c>
       <c r="G5">
-        <v>0.002427531770031495</v>
+        <v>0.0007539482608587806</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6234249009485318</v>
+        <v>0.1170406785540763</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3543873542648157</v>
+        <v>0.9827003223897464</v>
       </c>
       <c r="M5">
-        <v>8.406049450756711</v>
+        <v>24.69987055810321</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.34957455767578</v>
+        <v>0.8340680381639629</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1450926412085494</v>
+        <v>0.09983504034441637</v>
       </c>
       <c r="D6">
-        <v>0.0241467335481147</v>
+        <v>0.0296410931623825</v>
       </c>
       <c r="E6">
-        <v>0.177827770774222</v>
+        <v>0.4000184518435077</v>
       </c>
       <c r="F6">
-        <v>0.6817036818244446</v>
+        <v>0.3279961188012166</v>
       </c>
       <c r="G6">
-        <v>0.002427767686527369</v>
+        <v>0.0007544064677702522</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6246625006658064</v>
+        <v>0.1161117663586815</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3525423131965795</v>
+        <v>0.9744098438976323</v>
       </c>
       <c r="M6">
-        <v>8.350422435628275</v>
+        <v>24.50679595273033</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.353038612139301</v>
+        <v>0.8276550212885638</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1448793551761582</v>
+        <v>0.104659213953866</v>
       </c>
       <c r="D7">
-        <v>0.02439305156950411</v>
+        <v>0.03113792515780034</v>
       </c>
       <c r="E7">
-        <v>0.1824739362423813</v>
+        <v>0.4237818790499119</v>
       </c>
       <c r="F7">
-        <v>0.676709214947536</v>
+        <v>0.3459502057449484</v>
       </c>
       <c r="G7">
-        <v>0.002426142582229052</v>
+        <v>0.0007512243753574457</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6161794299590682</v>
+        <v>0.1231448438878573</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3653708197547019</v>
+        <v>1.03257572256922</v>
       </c>
       <c r="M7">
-        <v>8.736242209425654</v>
+        <v>25.85456587573452</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.329375418769672</v>
+        <v>0.8742317481091675</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1443480659625891</v>
+        <v>0.1296488021322659</v>
       </c>
       <c r="D8">
-        <v>0.02552308135666692</v>
+        <v>0.03834226601126289</v>
       </c>
       <c r="E8">
-        <v>0.2033714891905731</v>
+        <v>0.5375099998369137</v>
       </c>
       <c r="F8">
-        <v>0.6573173335915143</v>
+        <v>0.4415524065973244</v>
       </c>
       <c r="G8">
-        <v>0.002419277254308798</v>
+        <v>0.0007370573798860525</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5814352747116196</v>
+        <v>0.1712258949288064</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4225456257628935</v>
+        <v>1.308372304029234</v>
       </c>
       <c r="M8">
-        <v>10.43173342170832</v>
+        <v>32.04076700261936</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.234514714380879</v>
+        <v>1.139691270770953</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1448319889512248</v>
+        <v>0.2016551166093876</v>
       </c>
       <c r="D9">
-        <v>0.02790013214357856</v>
+        <v>0.0563003195901004</v>
       </c>
       <c r="E9">
-        <v>0.2458906355087862</v>
+        <v>0.8174725088080095</v>
       </c>
       <c r="F9">
-        <v>0.6291465358328949</v>
+        <v>0.7209632761638716</v>
       </c>
       <c r="G9">
-        <v>0.002406900975727609</v>
+        <v>0.0007076285507331264</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5233232911064896</v>
+        <v>0.3626544657843027</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5369496725034821</v>
+        <v>1.972907631935954</v>
       </c>
       <c r="M9">
-        <v>13.73362012078138</v>
+        <v>45.75270054350682</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.084099889397578</v>
+        <v>1.998787239041917</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1461708331080018</v>
+        <v>0.2871852714960994</v>
       </c>
       <c r="D10">
-        <v>0.02975160189743775</v>
+        <v>0.07502350146322811</v>
       </c>
       <c r="E10">
-        <v>0.2781946997666438</v>
+        <v>1.105564191433899</v>
       </c>
       <c r="F10">
-        <v>0.614777789658298</v>
+        <v>1.040148951506694</v>
       </c>
       <c r="G10">
-        <v>0.002398457665094463</v>
+        <v>0.0006828328301670235</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4870673951109197</v>
+        <v>0.626729237420399</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6226673955724493</v>
+        <v>2.640813590223814</v>
       </c>
       <c r="M10">
-        <v>16.1484756729497</v>
+        <v>58.1282132878402</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.996463043686163</v>
+        <v>3.053676408342199</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1470059100821999</v>
+        <v>0.3436086552987661</v>
       </c>
       <c r="D11">
-        <v>0.03061838413434259</v>
+        <v>0.08651430802753168</v>
       </c>
       <c r="E11">
-        <v>0.293152523338108</v>
+        <v>1.281033032723798</v>
       </c>
       <c r="F11">
-        <v>0.6096856131476329</v>
+        <v>1.239816497521645</v>
       </c>
       <c r="G11">
-        <v>0.002394754712894955</v>
+        <v>0.0006697090347006922</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4720445987165043</v>
+        <v>0.8074128123205995</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6620901594043289</v>
+        <v>3.041508169221231</v>
       </c>
       <c r="M11">
-        <v>17.24542108111217</v>
+        <v>64.98261894787356</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.961818476011189</v>
+        <v>3.738234382083448</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.147355730266014</v>
+        <v>0.3698187476592381</v>
       </c>
       <c r="D12">
-        <v>0.03095028952370171</v>
+        <v>0.09168494067525756</v>
       </c>
       <c r="E12">
-        <v>0.2988570760527551</v>
+        <v>1.359747184307366</v>
       </c>
       <c r="F12">
-        <v>0.6079709569268203</v>
+        <v>1.329495198711811</v>
       </c>
       <c r="G12">
-        <v>0.002393372102165996</v>
+        <v>0.0006642255927809449</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4665734772925347</v>
+        <v>0.8917343383404841</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6770860080498551</v>
+        <v>3.219979033679465</v>
       </c>
       <c r="M12">
-        <v>17.66064323457852</v>
+        <v>67.91231944685694</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.949472171871207</v>
+        <v>4.050671788035146</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1472788780662313</v>
+        <v>0.3638862496827784</v>
       </c>
       <c r="D13">
-        <v>0.03087864193729928</v>
+        <v>0.0905227972576057</v>
       </c>
       <c r="E13">
-        <v>0.2976266608064293</v>
+        <v>1.342066696219064</v>
       </c>
       <c r="F13">
-        <v>0.6083306408207818</v>
+        <v>1.30936743707349</v>
       </c>
       <c r="G13">
-        <v>0.002393669003342279</v>
+        <v>0.0006654370025275535</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4677419981020599</v>
+        <v>0.8726483580644881</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6738532976227134</v>
+        <v>3.179956120822681</v>
       </c>
       <c r="M13">
-        <v>17.57122412455919</v>
+        <v>67.26163769455343</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.952096442439569</v>
+        <v>3.980296945990887</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1470340102453918</v>
+        <v>0.3456436828217733</v>
       </c>
       <c r="D14">
-        <v>0.03064561569208735</v>
+        <v>0.08691921619374909</v>
       </c>
       <c r="E14">
-        <v>0.293621016170917</v>
+        <v>1.287201894783465</v>
       </c>
       <c r="F14">
-        <v>0.6095402310829456</v>
+        <v>1.246849209106657</v>
       </c>
       <c r="G14">
-        <v>0.002394640572618861</v>
+        <v>0.0006692707572004644</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4715900870766419</v>
+        <v>0.8139578752796908</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6633224947736664</v>
+        <v>3.055522180634341</v>
       </c>
       <c r="M14">
-        <v>17.27958464114329</v>
+        <v>65.21532123697432</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.960787121854679</v>
+        <v>3.762630629537341</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1468884300817024</v>
+        <v>0.3352177410486519</v>
       </c>
       <c r="D15">
-        <v>0.03050336331826031</v>
+        <v>0.08483831569445499</v>
       </c>
       <c r="E15">
-        <v>0.291172777883034</v>
+        <v>1.255489577687712</v>
       </c>
       <c r="F15">
-        <v>0.6103091414208279</v>
+        <v>1.210694622920698</v>
       </c>
       <c r="G15">
-        <v>0.002395238235252661</v>
+        <v>0.0006715397492663394</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4739756904313879</v>
+        <v>0.7804357405180014</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6568810106600154</v>
+        <v>2.983429661370394</v>
       </c>
       <c r="M15">
-        <v>17.10092715497512</v>
+        <v>64.01331006906082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.966211720190586</v>
+        <v>3.637408092785591</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1461208991286185</v>
+        <v>0.2839954749075844</v>
       </c>
       <c r="D16">
-        <v>0.02969546157663672</v>
+        <v>0.07435691363167507</v>
       </c>
       <c r="E16">
-        <v>0.2772226718562649</v>
+        <v>1.095358318759082</v>
       </c>
       <c r="F16">
-        <v>0.6151401438159922</v>
+        <v>1.028593120820375</v>
       </c>
       <c r="G16">
-        <v>0.002398702418894132</v>
+        <v>0.0006836377127758531</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4880792872334361</v>
+        <v>0.6165951502488056</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6201001315759811</v>
+        <v>2.617377468832132</v>
       </c>
       <c r="M16">
-        <v>16.07676086843912</v>
+        <v>57.71483495299367</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.998834089955096</v>
+        <v>3.014567996165539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1457086934457976</v>
+        <v>0.2580682026644467</v>
       </c>
       <c r="D17">
-        <v>0.02920622480462498</v>
+        <v>0.0688594582367088</v>
       </c>
       <c r="E17">
-        <v>0.2687337701718633</v>
+        <v>1.011059145387073</v>
       </c>
       <c r="F17">
-        <v>0.6184779132337752</v>
+        <v>0.9336241425717446</v>
       </c>
       <c r="G17">
-        <v>0.002400862761626149</v>
+        <v>0.0006904772992167436</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4971123574687368</v>
+        <v>0.5347905163650779</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5976500560104796</v>
+        <v>2.423205099717137</v>
       </c>
       <c r="M17">
-        <v>15.44810340769357</v>
+        <v>54.233974071445</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.020199767464618</v>
+        <v>2.695519698330401</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1454928097394799</v>
+        <v>0.2446074242458423</v>
       </c>
       <c r="D18">
-        <v>0.02892712915556928</v>
+        <v>0.0659442320974577</v>
       </c>
       <c r="E18">
-        <v>0.2638757244501306</v>
+        <v>0.9662557230398647</v>
       </c>
       <c r="F18">
-        <v>0.6205332847038321</v>
+        <v>0.8836032996368886</v>
       </c>
       <c r="G18">
-        <v>0.002402118331870253</v>
+        <v>0.0006942586185171843</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5024459385003865</v>
+        <v>0.4928327722121963</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5847774216163941</v>
+        <v>2.319556525367432</v>
       </c>
       <c r="M18">
-        <v>15.08636312990274</v>
+        <v>52.33382159870803</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.032978907565052</v>
+        <v>2.52927793247062</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1454233251003672</v>
+        <v>0.2402613487798959</v>
       </c>
       <c r="D19">
-        <v>0.02883302302328161</v>
+        <v>0.06499315060526101</v>
       </c>
       <c r="E19">
-        <v>0.2622350131382944</v>
+        <v>0.9516225919905281</v>
       </c>
       <c r="F19">
-        <v>0.6212523036731099</v>
+        <v>0.8673518296805298</v>
       </c>
       <c r="G19">
-        <v>0.002402545685673555</v>
+        <v>0.0006955168336070223</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.50427530983983</v>
+        <v>0.479380766719963</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5804256850630907</v>
+        <v>2.285633381585114</v>
       </c>
       <c r="M19">
-        <v>14.9638560385855</v>
+        <v>51.70536204565974</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.037389230683317</v>
+        <v>2.475555046603603</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1457503709751364</v>
+        <v>0.2606681979668082</v>
       </c>
       <c r="D20">
-        <v>0.02925806579641232</v>
+        <v>0.06941748221053956</v>
       </c>
       <c r="E20">
-        <v>0.2696348695712771</v>
+        <v>1.019627027379215</v>
       </c>
       <c r="F20">
-        <v>0.6181085277319056</v>
+        <v>0.9432302946188003</v>
       </c>
       <c r="G20">
-        <v>0.002400631445814328</v>
+        <v>0.0006897660722774096</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4961364444750487</v>
+        <v>0.5429405842988686</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6000357202286182</v>
+        <v>2.442989711545948</v>
       </c>
       <c r="M20">
-        <v>15.51504049658035</v>
+        <v>54.59329623094465</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.017874466731143</v>
+        <v>2.72759302227422</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1471050131061276</v>
+        <v>0.3508368248116795</v>
       </c>
       <c r="D21">
-        <v>0.03071396023079842</v>
+        <v>0.08794978837866552</v>
       </c>
       <c r="E21">
-        <v>0.2947964544697612</v>
+        <v>1.302899038177827</v>
       </c>
       <c r="F21">
-        <v>0.6091790988146357</v>
+        <v>1.264742522947799</v>
       </c>
       <c r="G21">
-        <v>0.002394354668665886</v>
+        <v>0.0006681621836470493</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4704538514130086</v>
+        <v>0.8306629877402685</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.666413773960727</v>
+        <v>3.091160750542599</v>
       </c>
       <c r="M21">
-        <v>17.36525025374425</v>
+        <v>65.80503920169298</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.958213306637816</v>
+        <v>3.824784106687645</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1481867157846182</v>
+        <v>0.4428246464406413</v>
       </c>
       <c r="D22">
-        <v>0.03168696039140428</v>
+        <v>0.1056427166797462</v>
       </c>
       <c r="E22">
-        <v>0.3114775225005673</v>
+        <v>1.571695099770409</v>
       </c>
       <c r="F22">
-        <v>0.604591320887863</v>
+        <v>1.569113250579662</v>
       </c>
       <c r="G22">
-        <v>0.002390366666102232</v>
+        <v>0.0006505473113514587</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.45494064802417</v>
+        <v>1.125706139076719</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7101908282012062</v>
+        <v>3.697058396135787</v>
       </c>
       <c r="M22">
-        <v>18.57352677411563</v>
+        <v>75.40164170177093</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.923736540071161</v>
+        <v>4.89892443929682</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1475910466172508</v>
+        <v>0.3886993204974516</v>
       </c>
       <c r="D23">
-        <v>0.03116563476696399</v>
+        <v>0.09535360889066169</v>
       </c>
       <c r="E23">
-        <v>0.3025519779543089</v>
+        <v>1.415522762042485</v>
       </c>
       <c r="F23">
-        <v>0.6069236979416104</v>
+        <v>1.392891872005748</v>
       </c>
       <c r="G23">
-        <v>0.002392484760453666</v>
+        <v>0.0006604780694961712</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4631018503257565</v>
+        <v>0.9524400251131269</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6867880929932824</v>
+        <v>3.346000318920886</v>
       </c>
       <c r="M23">
-        <v>17.92871150315284</v>
+        <v>69.93786615940064</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.941716915297235</v>
+        <v>4.273249430647752</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1457314629279693</v>
+        <v>0.2594883641792194</v>
       </c>
       <c r="D24">
-        <v>0.02923462172613256</v>
+        <v>0.06916445662275095</v>
       </c>
       <c r="E24">
-        <v>0.2692274131525494</v>
+        <v>1.015742401633574</v>
       </c>
       <c r="F24">
-        <v>0.6182751023763373</v>
+        <v>0.9388734379916173</v>
       </c>
       <c r="G24">
-        <v>0.002400735981407652</v>
+        <v>0.0006900880743022086</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.496577218058075</v>
+        <v>0.5392405327508314</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5989570552855525</v>
+        <v>2.434020913592946</v>
       </c>
       <c r="M24">
-        <v>15.48477922974138</v>
+        <v>54.43054055405275</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.018924192767258</v>
+        <v>2.713040460470722</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1445324253274833</v>
+        <v>0.17839005680149</v>
       </c>
       <c r="D25">
-        <v>0.0272391612243581</v>
+        <v>0.05080392657419708</v>
       </c>
       <c r="E25">
-        <v>0.2342107458516125</v>
+        <v>0.7322321772472336</v>
       </c>
       <c r="F25">
-        <v>0.6356795813643217</v>
+        <v>0.631222116731152</v>
       </c>
       <c r="G25">
-        <v>0.002410134065591072</v>
+        <v>0.000715925081057635</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5379375901237005</v>
+        <v>0.2957402432260956</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5057288935074382</v>
+        <v>1.77243185994331</v>
       </c>
       <c r="M25">
-        <v>12.84254550745828</v>
+        <v>41.77709171108961</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.120859903334946</v>
+        <v>1.714018495475642</v>
       </c>
     </row>
   </sheetData>
